--- a/biology/Médecine/Thomas_de_Pisan/Thomas_de_Pisan.xlsx
+++ b/biology/Médecine/Thomas_de_Pisan/Thomas_de_Pisan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas de Pisan (également orthographié Thomas de Pizan) ou Tommaso di Benvenuto da Pizzano, né à une date inconnue, probablement vers 1310 et mort vers 1387, est un médecin et astrologue italien. Il avait aussi des connaissances en droit. Il a notamment travaillé au service de Charles V. Il est le père de la femme de lettres Christine de Pisan.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas de Pisan, fils de Benvenuto da Pizzano, fait des études de médecine à l'université de Bologne. Il en est lauréat, obtint une chaire et y professe l'astrologie de 1344 à 1356. Ensuite, il part rejoindre son ancien camarade d'études, Thomas de Mondino, qui était au service de la République de Venise. Comme ce dernier, il y devient conseiller salarié de la Sérénissime et épouse la fille de son ami dont il eut trois enfants, deux garçons et une fille. Sa réputation était grande et les princes européens qui s'intéressaient à l'astrologie l'honoraient de leur amitié.
 Peu après la naissance de sa fille Christine de Pisan, en 1365, il se rend à Bologne et y reçoit des messages de Louis Ier le Grand, roi de Hongrie, et de Charles V, roi de France, qui lui faisaient des offres pour l'attirer auprès d'eux en tant que conseiller. Après de longues hésitations, il finit par choisir la France à cause de la personnalité de Charles V, de la renommée de l'Université de Paris et de la splendeur de la cour française. Le roi lui fait un très bon accueil et le prend à ses côtés en tant que conseiller. Conquis par sa science et par ses précieuses connaissances, il ne veut pas le laisser repartir au bout d'un an (comme il était convenu au départ) et lui offre de payer le voyage de sa famille et d'aider à son entretien pour que qu'il reste auprès de lui. Thomas hésite pendant près de trois ans, puis finit par accepter. C'est ainsi que Christine de Pisan et sa mère furent présentées au roi au mois de décembre 1368.
